--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahen\Desktop\deeplearn\aI_trader\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D91DD8D-BE23-41CE-84EB-1F9DCD3A0AFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE7F4E6-434F-4BE6-BD61-841D0997CA59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2185,12 +2185,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2213,53 +2211,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>1.7227252151686301</v>
+        <v>-0.71355759429153898</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-11.000000238418499</v>
+        <v>8.0000001192092896</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>403</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>404</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1.66178559928958</v>
+        <v>1.3793103448275801</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3">
-        <v>-8.9999997615814191</v>
+        <v>6.9999998807907096</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>2.02874446726678</v>
+        <v>-0.34423407917383803</v>
       </c>
       <c r="D4">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3.0000001192092798</v>
+        <v>12.0000004768371</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2270,588 +2268,588 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>2.3863138669130799</v>
+        <v>-1.80995475113122</v>
       </c>
       <c r="D5">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>8.9999997615814191</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0.749196702665059</v>
+        <v>0.54151624548736399</v>
       </c>
       <c r="D6">
-        <v>85.7</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>-10</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.88084971578795301</v>
+        <v>-0.90634441087613304</v>
       </c>
       <c r="D7">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>8.9999997615814191</v>
+        <v>-11.000000238418499</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>0.821958360586732</v>
+        <v>0.91428571428571404</v>
       </c>
       <c r="D8">
-        <v>85.7</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>-12.0000004768371</v>
+        <v>-13.9999997615814</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>1.312924151567</v>
+        <v>-3.4606205250596598</v>
       </c>
       <c r="D9">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-10</v>
+        <v>-2.0000000298023202</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>1.61937645376436</v>
+        <v>-7.28682170542635</v>
       </c>
       <c r="D10">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>-8.9999997615814191</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>0.68338546885568996</v>
+        <v>0.71647901740020403</v>
       </c>
       <c r="D11">
-        <v>85.7</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>8.9999997615814191</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>0.97011699959994901</v>
+        <v>-0.31152647975077802</v>
       </c>
       <c r="D12">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>-11.000000238418499</v>
+        <v>8.0000001192092896</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>1.09582217681641</v>
+        <v>-0.64102564102564097</v>
       </c>
       <c r="D13">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>-8.9999997615814191</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>1.2532948541276001</v>
+        <v>-2.4390243902439002</v>
       </c>
       <c r="D14">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>4.0000000596046403</v>
+        <v>8.9999997615814191</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>0.63302796954318297</v>
+        <v>-0.84985835694051004</v>
       </c>
       <c r="D15">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>0.96911247006187595</v>
+        <v>-1.25</v>
       </c>
       <c r="D16">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>-12.999999523162799</v>
+        <v>6.0000002384185702</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="C17">
-        <v>2.4515390633171399</v>
+        <v>0.97560975609756095</v>
       </c>
       <c r="D17">
-        <v>85.7</v>
+        <v>100</v>
       </c>
       <c r="E17">
-        <v>-12.0000004768371</v>
+        <v>8.0000001192092896</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>348</v>
+        <v>38</v>
       </c>
       <c r="C18">
-        <v>1.87372953707606</v>
+        <v>-3.6065573770491799</v>
       </c>
       <c r="D18">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>-8.9999997615814191</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>6.83446201186962E-2</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>71.399999999999906</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>-11.000000238418499</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C20">
-        <v>1.2072460825279001</v>
+        <v>-0.110619469026548</v>
       </c>
       <c r="D20">
-        <v>71.399999999999906</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>0.93800768262491496</v>
+        <v>1.7283950617283901</v>
       </c>
       <c r="D21">
-        <v>71.399999999999906</v>
+        <v>100</v>
       </c>
       <c r="E21">
-        <v>-6.0000002384185702</v>
+        <v>6.0000002384185702</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>0.60767407982039401</v>
+        <v>-0.854700854700854</v>
       </c>
       <c r="D22">
-        <v>71.399999999999906</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>-10</v>
+        <v>8.0000001192092896</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="C23">
-        <v>0.307192041341805</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>71.399999999999906</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>-8.0000001192092896</v>
+        <v>2.0000000298023202</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C24">
-        <v>2.0938300459513601</v>
+        <v>0.123304562268803</v>
       </c>
       <c r="D24">
-        <v>71.399999999999906</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>-6.0000002384185702</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="C25">
-        <v>1.6630878617698599</v>
+        <v>-1.6891891891891799</v>
       </c>
       <c r="D25">
-        <v>71.399999999999906</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>-10</v>
+        <v>12.0000004768371</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="C26">
-        <v>1.19111585672472</v>
+        <v>-3.8277511961722399</v>
       </c>
       <c r="D26">
-        <v>71.399999999999906</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>-8.9999997615814191</v>
+        <v>-6.9999998807907096</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>235</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="C27">
-        <v>5.54024170806003E-2</v>
+        <v>0.71090047393364897</v>
       </c>
       <c r="D27">
-        <v>71.399999999999906</v>
+        <v>100</v>
       </c>
       <c r="E27">
-        <v>12.0000004768371</v>
+        <v>12.999999523162799</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>58</v>
       </c>
       <c r="C28">
-        <v>0.24253849083703899</v>
+        <v>-2.0979020979020899</v>
       </c>
       <c r="D28">
-        <v>71.399999999999906</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>-8.0000001192092896</v>
+        <v>12.0000004768371</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>257</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>60</v>
       </c>
       <c r="C29">
-        <v>1.2260561988319501</v>
+        <v>1.5209125475285099</v>
       </c>
       <c r="D29">
-        <v>71.399999999999906</v>
+        <v>100</v>
       </c>
       <c r="E29">
-        <v>-6.0000002384185702</v>
+        <v>-11.000000238418499</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>259</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="C30">
-        <v>1.2468409806793099</v>
+        <v>1.2345679012345601</v>
       </c>
       <c r="D30">
-        <v>71.399999999999906</v>
+        <v>100</v>
       </c>
       <c r="E30">
-        <v>6.9999998807907096</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>327</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>328</v>
+        <v>64</v>
       </c>
       <c r="C31">
-        <v>0.78011282939569804</v>
+        <v>-6.7708333333333304</v>
       </c>
       <c r="D31">
-        <v>71.399999999999906</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>-8.0000001192092896</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>349</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>350</v>
+        <v>66</v>
       </c>
       <c r="C32">
-        <v>9.7289085072211304E-2</v>
+        <v>-12.4579124579124</v>
       </c>
       <c r="D32">
-        <v>71.399999999999906</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>8.9999997615814191</v>
+        <v>-16.000000238418501</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>365</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>366</v>
+        <v>68</v>
       </c>
       <c r="C33">
-        <v>0.38141711478686302</v>
+        <v>-0.76923076923076905</v>
       </c>
       <c r="D33">
-        <v>71.399999999999906</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>8.9999997615814191</v>
+        <v>-6.0000002384185702</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>389</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>390</v>
+        <v>70</v>
       </c>
       <c r="C34">
-        <v>0.75220521630603598</v>
+        <v>0.39840637450199201</v>
       </c>
       <c r="D34">
-        <v>71.399999999999906</v>
+        <v>100</v>
       </c>
       <c r="E34">
-        <v>-6.9999998807907096</v>
+        <v>-8.9999997615814191</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>397</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>398</v>
+        <v>72</v>
       </c>
       <c r="C35">
-        <v>0.61470781228943505</v>
+        <v>6.1898211829436001</v>
       </c>
       <c r="D35">
-        <v>71.399999999999906</v>
+        <v>100</v>
       </c>
       <c r="E35">
-        <v>-11.000000238418499</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>399</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>400</v>
+        <v>74</v>
       </c>
       <c r="C36">
-        <v>1.2828894318740001</v>
+        <v>-0.55172413793103403</v>
       </c>
       <c r="D36">
-        <v>71.399999999999906</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>-12.0000004768371</v>
+        <v>-8.9999997615814191</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C37">
-        <v>0.95259724913462196</v>
+        <v>-0.57636887608069098</v>
       </c>
       <c r="D37">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>11.000000238418499</v>
+        <v>-11.000000238418499</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C38">
-        <v>-0.28966564318213001</v>
+        <v>1.7543859649122799</v>
       </c>
       <c r="D38">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E38">
-        <v>-8.0000001192092896</v>
+        <v>-11.000000238418499</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C39">
-        <v>-0.45676085856985599</v>
+        <v>0.85106382978723405</v>
       </c>
       <c r="D39">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E39">
         <v>-6.9999998807907096</v>
@@ -2859,169 +2857,169 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C40">
-        <v>0.75628385152785504</v>
+        <v>-0.47393364928911302</v>
       </c>
       <c r="D40">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>8.9999997615814191</v>
+        <v>4.0000000596046403</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C41">
-        <v>0.69189182692997198</v>
+        <v>1.4492753623188399</v>
       </c>
       <c r="D41">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E41">
-        <v>-6.9999998807907096</v>
+        <v>-4.0000000596046403</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C42">
-        <v>-0.36144817906768401</v>
+        <v>-1.8363939899832999</v>
       </c>
       <c r="D42">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>-11.000000238418499</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C43">
-        <v>0.39342058644233102</v>
+        <v>-5.0314465408805003</v>
       </c>
       <c r="D43">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>-8.9999997615814191</v>
+        <v>-6.0000002384185702</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C44">
-        <v>0.71404290890367605</v>
+        <v>0.44642857142857101</v>
       </c>
       <c r="D44">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E44">
-        <v>-12.0000004768371</v>
+        <v>-11.000000238418499</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C45">
-        <v>-0.728331894103046</v>
+        <v>19.119119119119102</v>
       </c>
       <c r="D45">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E45">
-        <v>-8.9999997615814191</v>
+        <v>8.0000001192092896</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C46">
-        <v>0.55158151404446598</v>
+        <v>-0.31897926634768697</v>
       </c>
       <c r="D46">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>-8.9999997615814191</v>
+        <v>-12.999999523162799</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C47">
-        <v>2.2776500124421901E-2</v>
+        <v>3.5149384885764499</v>
       </c>
       <c r="D47">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>-8.9999997615814191</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C48">
-        <v>7.3456804459844996E-2</v>
+        <v>0.87939698492462304</v>
       </c>
       <c r="D48">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E48">
-        <v>-12.999999523162799</v>
+        <v>-11.000000238418499</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49">
-        <v>0.77998437075663796</v>
+        <v>0.6</v>
       </c>
       <c r="D49">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E49">
         <v>-8.9999997615814191</v>
@@ -3029,67 +3027,67 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C50">
-        <v>0.42159673475581</v>
+        <v>2.6119402985074598</v>
       </c>
       <c r="D50">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E50">
-        <v>8.0000001192092896</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C51">
-        <v>1.06886729949684</v>
+        <v>-1.7543859649122799</v>
       </c>
       <c r="D51">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C52">
-        <v>-8.93718799491975E-2</v>
+        <v>-0.80971659919028305</v>
       </c>
       <c r="D52">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>-11.000000238418499</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="C53">
-        <v>4.2037556488144598E-2</v>
+        <v>-1.01214574898785</v>
       </c>
       <c r="D53">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>10</v>
@@ -3097,305 +3095,305 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C54">
-        <v>-0.25355148724893301</v>
+        <v>-0.84033613445378097</v>
       </c>
       <c r="D54">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>-10</v>
+        <v>-12.0000004768371</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C55">
-        <v>0.79076378283773396</v>
+        <v>-0.33112582781456901</v>
       </c>
       <c r="D55">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>-8.9999997615814191</v>
+        <v>8.0000001192092896</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="C56">
-        <v>-8.5852308829977506E-2</v>
+        <v>-3.6144578313253</v>
       </c>
       <c r="D56">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>4.0000000596046403</v>
+        <v>-6.9999998807907096</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="C57">
-        <v>-0.72907744308737699</v>
+        <v>1.1873350923482799</v>
       </c>
       <c r="D57">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E57">
-        <v>6.9999998807907096</v>
+        <v>8.9999997615814191</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="C58">
-        <v>1.3996535706815301</v>
+        <v>8.75</v>
       </c>
       <c r="D58">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>-6.9999998807907096</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="C59">
-        <v>0.28260447842931402</v>
+        <v>-0.81112398609501701</v>
       </c>
       <c r="D59">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>-3.0000001192092798</v>
+        <v>12.0000004768371</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="C60">
-        <v>-9.3207444274921003E-2</v>
+        <v>-1.9543973941368</v>
       </c>
       <c r="D60">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>8.0000001192092896</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="C61">
-        <v>-0.96092034658744896</v>
+        <v>-0.48465266558966003</v>
       </c>
       <c r="D61">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>-5</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="C62">
-        <v>0.38932453715965798</v>
+        <v>0.414937759336099</v>
       </c>
       <c r="D62">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E62">
-        <v>-6.0000002384185702</v>
+        <v>3.0000001192092798</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="C63">
-        <v>-1.6768356698504201</v>
+        <v>-0.60532687651331696</v>
       </c>
       <c r="D63">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>-6.9999998807907096</v>
+        <v>-8.0000001192092896</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="C64">
-        <v>0.35272574447988098</v>
+        <v>-0.34682080924855402</v>
       </c>
       <c r="D64">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>4.0000000596046403</v>
+        <v>-8.9999997615814191</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="C65">
-        <v>0.41745210117450998</v>
+        <v>0.51194539249146698</v>
       </c>
       <c r="D65">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E65">
-        <v>-12.999999523162799</v>
+        <v>-8.9999997615814191</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>134</v>
       </c>
       <c r="C66">
-        <v>0.175723745172324</v>
+        <v>-0.26845637583892601</v>
       </c>
       <c r="D66">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>2.0000000298023202</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="C67">
-        <v>-1.12639418327551</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>-12.0000004768371</v>
+        <v>-20.999999046325598</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>254</v>
+        <v>138</v>
       </c>
       <c r="C68">
-        <v>0.15538469909221</v>
+        <v>-1.2345679012345601</v>
       </c>
       <c r="D68">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>-13.9999997615814</v>
+        <v>6.0000002384185702</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>261</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>262</v>
+        <v>140</v>
       </c>
       <c r="C69">
-        <v>-0.276616438266784</v>
+        <v>-1.0590015128593</v>
       </c>
       <c r="D69">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>8.9999997615814191</v>
+        <v>2.0000000298023202</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>265</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="C70">
-        <v>0.890690486310592</v>
+        <v>-1.63636363636363</v>
       </c>
       <c r="D70">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>-8.0000001192092896</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>271</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>272</v>
+        <v>144</v>
       </c>
       <c r="C71">
-        <v>0.51951840673193606</v>
+        <v>-2.2012578616352201</v>
       </c>
       <c r="D71">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>-10</v>
@@ -3403,322 +3401,322 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>273</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="C72">
-        <v>0.73327958608860599</v>
+        <v>0.71942446043165398</v>
       </c>
       <c r="D72">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E72">
-        <v>-10</v>
+        <v>-8.9999997615814191</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>282</v>
+        <v>148</v>
       </c>
       <c r="C73">
-        <v>-0.45316375022812699</v>
+        <v>-0.15576323987538901</v>
       </c>
       <c r="D73">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>-6.9999998807907096</v>
+        <v>8.0000001192092896</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="C74">
-        <v>0.72711302896497798</v>
+        <v>0.63091482649842201</v>
       </c>
       <c r="D74">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E74">
-        <v>-11.000000238418499</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>287</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="C75">
-        <v>-6.2210763668070199E-2</v>
+        <v>-2.7964205816554801</v>
       </c>
       <c r="D75">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>-8.0000001192092896</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>289</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
-        <v>290</v>
+        <v>154</v>
       </c>
       <c r="C76">
-        <v>0.71112177046493996</v>
+        <v>-0.62208398133746901</v>
       </c>
       <c r="D76">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>-10</v>
+        <v>-12.0000004768371</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>297</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>298</v>
+        <v>156</v>
       </c>
       <c r="C77">
-        <v>0.20532575711376</v>
+        <v>-0.81967213114754101</v>
       </c>
       <c r="D77">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>-10</v>
+        <v>-8.9999997615814191</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>308</v>
+        <v>158</v>
       </c>
       <c r="C78">
-        <v>-0.22041966647489</v>
+        <v>-0.117924528301886</v>
       </c>
       <c r="D78">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>-8.0000001192092896</v>
+        <v>-6.9999998807907096</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>313</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>314</v>
+        <v>160</v>
       </c>
       <c r="C79">
-        <v>0.41079176837042602</v>
+        <v>0.27100271002710002</v>
       </c>
       <c r="D79">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E79">
-        <v>-12.0000004768371</v>
+        <v>-1.0000000149011601</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>317</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>318</v>
+        <v>162</v>
       </c>
       <c r="C80">
-        <v>0.32416734427956601</v>
+        <v>-3.8303693570451398</v>
       </c>
       <c r="D80">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>-8.0000001192092896</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>333</v>
+        <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>334</v>
+        <v>164</v>
       </c>
       <c r="C81">
-        <v>-0.27909530775791802</v>
+        <v>-1.07913669064748</v>
       </c>
       <c r="D81">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>-6.9999998807907096</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>335</v>
+        <v>165</v>
       </c>
       <c r="B82" t="s">
-        <v>336</v>
+        <v>166</v>
       </c>
       <c r="C82">
-        <v>-9.5364592237343102E-2</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>-8.9999997615814191</v>
+        <v>6.0000002384185702</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>338</v>
+        <v>168</v>
       </c>
       <c r="C83">
-        <v>-0.141331225916041</v>
+        <v>-0.366300366300366</v>
       </c>
       <c r="D83">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>-8.9999997615814191</v>
+        <v>13.9999997615814</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>343</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="C84">
-        <v>1.77110829582127E-2</v>
+        <v>-0.74906367041199795</v>
       </c>
       <c r="D84">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>-11.000000238418499</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>345</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>346</v>
+        <v>172</v>
       </c>
       <c r="C85">
-        <v>0.16612131920331799</v>
+        <v>-1.79372197309417</v>
       </c>
       <c r="D85">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>-8.9999997615814191</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>361</v>
+        <v>173</v>
       </c>
       <c r="B86" t="s">
-        <v>362</v>
+        <v>174</v>
       </c>
       <c r="C86">
-        <v>1.53827410927259</v>
+        <v>0.64102564102564097</v>
       </c>
       <c r="D86">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E86">
-        <v>-11.000000238418499</v>
+        <v>8.9999997615814191</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>363</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>364</v>
+        <v>176</v>
       </c>
       <c r="C87">
-        <v>1.8283433568368801</v>
+        <v>-2.1551724137931001</v>
       </c>
       <c r="D87">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>6.0000002384185702</v>
+        <v>8.9999997615814191</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>367</v>
+        <v>177</v>
       </c>
       <c r="B88" t="s">
-        <v>368</v>
+        <v>178</v>
       </c>
       <c r="C88">
-        <v>0.462416923881734</v>
+        <v>-3.0411449016100098</v>
       </c>
       <c r="D88">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>8.9999997615814191</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>375</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>376</v>
+        <v>180</v>
       </c>
       <c r="C89">
-        <v>0.50232846542842302</v>
+        <v>-1.2552301255230101</v>
       </c>
       <c r="D89">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>3.0000001192092798</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>379</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>380</v>
+        <v>182</v>
       </c>
       <c r="C90">
-        <v>0.69492342847050004</v>
+        <v>-1.2145748987854199</v>
       </c>
       <c r="D90">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>10</v>
@@ -3726,475 +3724,475 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>385</v>
+        <v>183</v>
       </c>
       <c r="B91" t="s">
-        <v>386</v>
+        <v>184</v>
       </c>
       <c r="C91">
-        <v>0.65687553896435602</v>
+        <v>-1.18243243243243</v>
       </c>
       <c r="D91">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>-8.0000001192092896</v>
+        <v>6.9999998807907096</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>391</v>
+        <v>185</v>
       </c>
       <c r="B92" t="s">
-        <v>392</v>
+        <v>186</v>
       </c>
       <c r="C92">
-        <v>0.72872256956895998</v>
+        <v>-0.73637702503681801</v>
       </c>
       <c r="D92">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>-6.0000002384185702</v>
+        <v>8.0000001192092896</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>395</v>
+        <v>187</v>
       </c>
       <c r="B93" t="s">
-        <v>396</v>
+        <v>188</v>
       </c>
       <c r="C93">
-        <v>-5.7983536005302601E-2</v>
+        <v>-0.66577896138481996</v>
       </c>
       <c r="D93">
-        <v>57.099999999999902</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>-8.9999997615814191</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>401</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
-        <v>402</v>
+        <v>190</v>
       </c>
       <c r="C94">
-        <v>5.65448241924024E-2</v>
+        <v>6.625</v>
       </c>
       <c r="D94">
-        <v>57.099999999999902</v>
+        <v>100</v>
       </c>
       <c r="E94">
-        <v>-6.9999998807907096</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="C95">
-        <v>-0.72413035767374301</v>
+        <v>2.9931972789115702</v>
       </c>
       <c r="D95">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E95">
-        <v>6.0000002384185702</v>
+        <v>2.0000000298023202</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="C96">
-        <v>0.45668180318120699</v>
+        <v>2.1782178217821699</v>
       </c>
       <c r="D96">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E96">
-        <v>-6.9999998807907096</v>
+        <v>-8.0000001192092896</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="C97">
-        <v>-0.57828914197812598</v>
+        <v>-9.0047393364928894</v>
       </c>
       <c r="D97">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>8.9999997615814191</v>
+        <v>-8.9999997615814191</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="C98">
-        <v>-0.80191307122682498</v>
+        <v>-0.41580041580041499</v>
       </c>
       <c r="D98">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>6.0000002384185702</v>
+        <v>-11.000000238418499</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="C99">
-        <v>-0.28045957899631702</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>8.0000001192092896</v>
+        <v>12.999999523162799</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="C100">
-        <v>-0.29009617293020701</v>
+        <v>1.1952191235059699</v>
       </c>
       <c r="D100">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E100">
-        <v>3.0000001192092798</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="C101">
-        <v>0.21172744507275501</v>
+        <v>3.0716723549488001</v>
       </c>
       <c r="D101">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E101">
-        <v>4.0000000596046403</v>
+        <v>-8.9999997615814191</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="C102">
-        <v>0.15360156036190301</v>
+        <v>0.625</v>
       </c>
       <c r="D102">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E102">
-        <v>8.0000001192092896</v>
+        <v>-8.9999997615814191</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="C103">
-        <v>-1.8050265943337001</v>
+        <v>-2.6151930261519301</v>
       </c>
       <c r="D103">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>-15</v>
+        <v>6.9999998807907096</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="B104" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="C104">
-        <v>-6.2313906050097498E-2</v>
+        <v>1.47783251231527</v>
       </c>
       <c r="D104">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E104">
-        <v>-10</v>
+        <v>3.0000001192092798</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="C105">
-        <v>7.7761770068406594E-2</v>
+        <v>-1.8181818181818099</v>
       </c>
       <c r="D105">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>-11.000000238418499</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="B106" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="C106">
-        <v>-1.0989572345541201</v>
+        <v>2.1028037383177498</v>
       </c>
       <c r="D106">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E106">
-        <v>-6.9999998807907096</v>
+        <v>-11.000000238418499</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="B107" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="C107">
-        <v>0.38913734178045001</v>
+        <v>2.0224719101123498</v>
       </c>
       <c r="D107">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E107">
-        <v>3.0000001192092798</v>
+        <v>-12.0000004768371</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="B108" t="s">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="C108">
-        <v>-7.9337045620466895E-2</v>
+        <v>-1.0174418604651101</v>
       </c>
       <c r="D108">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>-8.9999997615814191</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="C109">
-        <v>-1.1929930772576001</v>
+        <v>2.3640661938534202</v>
       </c>
       <c r="D109">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E109">
-        <v>-5</v>
+        <v>-3.0000001192092798</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="C110">
-        <v>-0.15206294128668399</v>
+        <v>-0.15267175572519001</v>
       </c>
       <c r="D110">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>8.9999997615814191</v>
+        <v>-2.0000000298023202</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="C111">
-        <v>0.67711686962928996</v>
+        <v>-0.54644808743169404</v>
       </c>
       <c r="D111">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>11.000000238418499</v>
+        <v>6.9999998807907096</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="C112">
-        <v>5.3177528118442001E-2</v>
+        <v>-0.81037277147487796</v>
       </c>
       <c r="D112">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>12.999999523162799</v>
+        <v>6.9999998807907096</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="C113">
-        <v>-0.43015318985332901</v>
+        <v>0.120481927710843</v>
       </c>
       <c r="D113">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E113">
-        <v>-8.0000001192092896</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="B114" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="C114">
-        <v>-0.59895309583353395</v>
+        <v>2.9411764705882302</v>
       </c>
       <c r="D114">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E114">
-        <v>-12.0000004768371</v>
+        <v>-4.0000000596046403</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="C115">
-        <v>-0.199076173505394</v>
+        <v>2.1186440677966099</v>
       </c>
       <c r="D115">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E115">
-        <v>2.0000000298023202</v>
+        <v>8.9999997615814191</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="C116">
-        <v>-0.88487095264221005</v>
+        <v>1.42630744849445</v>
       </c>
       <c r="D116">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E116">
-        <v>4.0000000596046403</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="B117" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C117">
-        <v>0.70599131093509304</v>
+        <v>-0.40899795501022501</v>
       </c>
       <c r="D117">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>3.0000001192092798</v>
+        <v>8.9999997615814191</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="B118" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="C118">
-        <v>-0.14890897339367101</v>
+        <v>-0.58479532163742598</v>
       </c>
       <c r="D118">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>10</v>
@@ -4202,988 +4200,988 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="C119">
-        <v>0.27501802239294398</v>
+        <v>-0.45112781954887199</v>
       </c>
       <c r="D119">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>11.000000238418499</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="B120" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="C120">
-        <v>2.9777748313551101E-2</v>
+        <v>-0.86580086580086502</v>
       </c>
       <c r="D120">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>6.9999998807907096</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="B121" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="C121">
-        <v>2.1554860047372299E-2</v>
+        <v>3.1045751633987</v>
       </c>
       <c r="D121">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E121">
-        <v>2.0000000298023202</v>
+        <v>8.9999997615814191</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C122">
-        <v>0.87284345727719503</v>
+        <v>3.3783783783783701</v>
       </c>
       <c r="D122">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E122">
-        <v>-11.000000238418499</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C123">
-        <v>-1.00505015497405</v>
+        <v>-1.87500000000001</v>
       </c>
       <c r="D123">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>8.0000001192092896</v>
+        <v>27.000000476837101</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B124" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C124">
-        <v>-0.27323038790877702</v>
+        <v>-0.184842883548996</v>
       </c>
       <c r="D124">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>8.0000001192092896</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B125" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C125">
-        <v>0.19385060368915799</v>
+        <v>-0.40567951318458401</v>
       </c>
       <c r="D125">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>-3.0000001192092798</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B126" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C126">
-        <v>5.3937461386090797E-2</v>
+        <v>-0.230414746543778</v>
       </c>
       <c r="D126">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>16.000000238418501</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B127" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C127">
-        <v>-0.233786568543394</v>
+        <v>0.41279669762641802</v>
       </c>
       <c r="D127">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E127">
-        <v>3.0000001192092798</v>
+        <v>-11.000000238418499</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B128" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C128">
-        <v>-9.8068147067367398E-2</v>
+        <v>-0.73637702503681801</v>
       </c>
       <c r="D128">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>6.0000002384185702</v>
+        <v>8.0000001192092896</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B129" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C129">
-        <v>-2.3621750451871301E-2</v>
+        <v>-2.6950354609929001</v>
       </c>
       <c r="D129">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>-11.000000238418499</v>
+        <v>-12.0000004768371</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B130" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="C130">
-        <v>-0.77930625563751799</v>
+        <v>1.3108614232209701</v>
       </c>
       <c r="D130">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>6.9999998807907096</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="B131" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C131">
-        <v>0.38674046982168098</v>
+        <v>-0.17793594306049801</v>
       </c>
       <c r="D131">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>10</v>
+        <v>8.0000001192092896</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="B132" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="C132">
-        <v>-0.14746045922730799</v>
+        <v>0.82644628099173501</v>
       </c>
       <c r="D132">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E132">
-        <v>6.0000002384185702</v>
+        <v>-1.0000000149011601</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="B133" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="C133">
-        <v>-0.417319923076791</v>
+        <v>-0.38022813688212898</v>
       </c>
       <c r="D133">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>-8.9999997615814191</v>
+        <v>4.0000000596046403</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>351</v>
+        <v>269</v>
       </c>
       <c r="B134" t="s">
-        <v>352</v>
+        <v>270</v>
       </c>
       <c r="C134">
-        <v>7.4756348436296693E-2</v>
+        <v>-1.21703853955375</v>
       </c>
       <c r="D134">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>8.9999997615814191</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="B135" t="s">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="C135">
-        <v>-1.0723966069836901</v>
+        <v>-0.100300902708124</v>
       </c>
       <c r="D135">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>5</v>
+        <v>-6.9999998807907096</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>359</v>
+        <v>273</v>
       </c>
       <c r="B136" t="s">
-        <v>360</v>
+        <v>274</v>
       </c>
       <c r="C136">
-        <v>2.2490807629309901</v>
+        <v>0.13568521031207501</v>
       </c>
       <c r="D136">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E136">
-        <v>10</v>
+        <v>-8.9999997615814191</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>371</v>
+        <v>275</v>
       </c>
       <c r="B137" t="s">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="C137">
-        <v>-1.49225236713874</v>
+        <v>2.4615384615384599</v>
       </c>
       <c r="D137">
-        <v>42.9</v>
+        <v>100</v>
       </c>
       <c r="E137">
-        <v>-8.0000001192092896</v>
+        <v>-11.000000238418499</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>373</v>
+        <v>277</v>
       </c>
       <c r="B138" t="s">
-        <v>374</v>
+        <v>278</v>
       </c>
       <c r="C138">
-        <v>-2.0032018641469902</v>
+        <v>-0.57803468208092401</v>
       </c>
       <c r="D138">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>8.0000001192092896</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>381</v>
+        <v>279</v>
       </c>
       <c r="B139" t="s">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="C139">
-        <v>-2.1127296188738699E-2</v>
+        <v>-1.6791044776119399</v>
       </c>
       <c r="D139">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>8.0000001192092896</v>
+        <v>-12.999999523162799</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>387</v>
+        <v>281</v>
       </c>
       <c r="B140" t="s">
-        <v>388</v>
+        <v>282</v>
       </c>
       <c r="C140">
-        <v>0.83160855097410402</v>
+        <v>-0.16447368421052599</v>
       </c>
       <c r="D140">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>-8.9999997615814191</v>
+        <v>-8.0000001192092896</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>393</v>
+        <v>283</v>
       </c>
       <c r="B141" t="s">
-        <v>394</v>
+        <v>284</v>
       </c>
       <c r="C141">
-        <v>-0.13561291510840601</v>
+        <v>-0.24330900243309</v>
       </c>
       <c r="D141">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>-6.9999998807907096</v>
+        <v>12.0000004768371</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>285</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>286</v>
       </c>
       <c r="C142">
-        <v>-0.72123159260102798</v>
+        <v>-3.1007751937984498</v>
       </c>
       <c r="D142">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>8.0000001192092896</v>
+        <v>-8.9999997615814191</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="B143" t="s">
-        <v>26</v>
+        <v>288</v>
       </c>
       <c r="C143">
-        <v>-0.271564619290382</v>
+        <v>0.89285714285714202</v>
       </c>
       <c r="D143">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E143">
-        <v>12.0000004768371</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>33</v>
+        <v>289</v>
       </c>
       <c r="B144" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="C144">
-        <v>-0.31968694873315301</v>
+        <v>1.4127144298688099</v>
       </c>
       <c r="D144">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E144">
-        <v>6.9999998807907096</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="B145" t="s">
-        <v>38</v>
+        <v>292</v>
       </c>
       <c r="C145">
-        <v>-1.2086239057791801</v>
+        <v>0.70339976553341099</v>
       </c>
       <c r="D145">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E145">
-        <v>6.9999998807907096</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>55</v>
+        <v>293</v>
       </c>
       <c r="B146" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="C146">
-        <v>-1.7066600771285301</v>
+        <v>1.48448043184885</v>
       </c>
       <c r="D146">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E146">
-        <v>-8.9999997615814191</v>
+        <v>-6.0000002384185702</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="B147" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="C147">
-        <v>-0.93499096969713802</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>-8.9999997615814191</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="B148" t="s">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="C148">
-        <v>-1.78142767991187</v>
+        <v>0.91145833333333304</v>
       </c>
       <c r="D148">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E148">
-        <v>8.0000001192092896</v>
+        <v>3.0000001192092798</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>85</v>
+        <v>299</v>
       </c>
       <c r="B149" t="s">
-        <v>86</v>
+        <v>300</v>
       </c>
       <c r="C149">
-        <v>-1.8803902449827601</v>
+        <v>1.4563106796116501</v>
       </c>
       <c r="D149">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E149">
-        <v>-4.0000000596046403</v>
+        <v>2.0000000298023202</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>107</v>
+        <v>301</v>
       </c>
       <c r="B150" t="s">
-        <v>108</v>
+        <v>302</v>
       </c>
       <c r="C150">
-        <v>-1.44083945191679</v>
+        <v>-2.1897810218978102</v>
       </c>
       <c r="D150">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>8.0000001192092896</v>
+        <v>6.9999998807907096</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="B151" t="s">
-        <v>112</v>
+        <v>304</v>
       </c>
       <c r="C151">
-        <v>-0.469355702989528</v>
+        <v>-1.1351909184726501</v>
       </c>
       <c r="D151">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>-6.9999998807907096</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>117</v>
+        <v>305</v>
       </c>
       <c r="B152" t="s">
-        <v>118</v>
+        <v>306</v>
       </c>
       <c r="C152">
-        <v>-0.61704295406922904</v>
+        <v>-1.92926045016077</v>
       </c>
       <c r="D152">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>-1.0000000149011601</v>
+        <v>6.0000002384185702</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>119</v>
+        <v>307</v>
       </c>
       <c r="B153" t="s">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="C153">
-        <v>-1.77694246522575E-2</v>
+        <v>-2.3166023166023102</v>
       </c>
       <c r="D153">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>1.0000000149011601</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>125</v>
+        <v>309</v>
       </c>
       <c r="B154" t="s">
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="C154">
-        <v>-0.47262932027987498</v>
+        <v>0.81967213114754101</v>
       </c>
       <c r="D154">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E154">
-        <v>-3.0000001192092798</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>141</v>
+        <v>311</v>
       </c>
       <c r="B155" t="s">
-        <v>142</v>
+        <v>312</v>
       </c>
       <c r="C155">
-        <v>-0.78330837499333705</v>
+        <v>-2.2309711286089202</v>
       </c>
       <c r="D155">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>8.9999997615814191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>161</v>
+        <v>313</v>
       </c>
       <c r="B156" t="s">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="C156">
-        <v>-0.75615875353879602</v>
+        <v>-1.31578947368421</v>
       </c>
       <c r="D156">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>8.9999997615814191</v>
+        <v>2.0000000298023202</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="B157" t="s">
-        <v>166</v>
+        <v>316</v>
       </c>
       <c r="C157">
-        <v>-1.0297725406015501</v>
+        <v>-2.6950354609929001</v>
       </c>
       <c r="D157">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>3.0000001192092798</v>
+        <v>8.9999997615814191</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="B158" t="s">
-        <v>174</v>
+        <v>318</v>
       </c>
       <c r="C158">
-        <v>-0.89988646566936203</v>
+        <v>-0.113507377979568</v>
       </c>
       <c r="D158">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>-4.0000000596046403</v>
+        <v>-11.000000238418499</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="B159" t="s">
-        <v>182</v>
+        <v>320</v>
       </c>
       <c r="C159">
-        <v>-0.64060385475960602</v>
+        <v>0.99601593625497997</v>
       </c>
       <c r="D159">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E159">
-        <v>12.0000004768371</v>
+        <v>-6.9999998807907096</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>185</v>
+        <v>321</v>
       </c>
       <c r="B160" t="s">
-        <v>186</v>
+        <v>322</v>
       </c>
       <c r="C160">
-        <v>-0.76834615674891105</v>
+        <v>-3.5874439461883401</v>
       </c>
       <c r="D160">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>8.9999997615814191</v>
+        <v>12.999999523162799</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>201</v>
+        <v>323</v>
       </c>
       <c r="B161" t="s">
-        <v>202</v>
+        <v>324</v>
       </c>
       <c r="C161">
-        <v>-1.3583327631387301</v>
+        <v>0.19157088122605301</v>
       </c>
       <c r="D161">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E161">
-        <v>-8.9999997615814191</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>211</v>
+        <v>325</v>
       </c>
       <c r="B162" t="s">
-        <v>212</v>
+        <v>326</v>
       </c>
       <c r="C162">
-        <v>-1.34265608911403</v>
+        <v>-1.32052821128451</v>
       </c>
       <c r="D162">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>8.9999997615814191</v>
+        <v>-6.0000002384185702</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>213</v>
+        <v>327</v>
       </c>
       <c r="B163" t="s">
-        <v>214</v>
+        <v>328</v>
       </c>
       <c r="C163">
-        <v>-0.96663983046273305</v>
+        <v>1.91693290734824</v>
       </c>
       <c r="D163">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E163">
-        <v>-8.9999997615814191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="B164" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C164">
-        <v>-1.02547626090235</v>
+        <v>3.9473684210526301</v>
       </c>
       <c r="D164">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E164">
-        <v>-8.0000001192092896</v>
+        <v>11.000000238418499</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>217</v>
+        <v>331</v>
       </c>
       <c r="B165" t="s">
-        <v>218</v>
+        <v>332</v>
       </c>
       <c r="C165">
-        <v>-1.1545313732221301</v>
+        <v>4.1526374859708097</v>
       </c>
       <c r="D165">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E165">
-        <v>-1.0000000149011601</v>
+        <v>-6.9999998807907096</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>219</v>
+        <v>333</v>
       </c>
       <c r="B166" t="s">
-        <v>220</v>
+        <v>334</v>
       </c>
       <c r="C166">
-        <v>-0.702633272707338</v>
+        <v>-6.1251664447403398</v>
       </c>
       <c r="D166">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>11.000000238418499</v>
+        <v>-12.0000004768371</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>231</v>
+        <v>335</v>
       </c>
       <c r="B167" t="s">
-        <v>232</v>
+        <v>336</v>
       </c>
       <c r="C167">
-        <v>8.0616565933467901E-2</v>
+        <v>-4.0114613180515697</v>
       </c>
       <c r="D167">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>4.0000000596046403</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="B168" t="s">
-        <v>240</v>
+        <v>338</v>
       </c>
       <c r="C168">
-        <v>-0.311478327520673</v>
+        <v>-0.98039215686274495</v>
       </c>
       <c r="D168">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>10</v>
+        <v>12.0000004768371</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="B169" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="C169">
-        <v>-0.93896328655600103</v>
+        <v>0.62893081761007397</v>
       </c>
       <c r="D169">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E169">
-        <v>-6.0000002384185702</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="B170" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="C170">
-        <v>0.76295466473639895</v>
+        <v>-4.2207792207792201</v>
       </c>
       <c r="D170">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>10</v>
+        <v>6.0000002384185702</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="B171" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="C171">
-        <v>-0.73705462523871501</v>
+        <v>1.2594458438287099</v>
       </c>
       <c r="D171">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E171">
-        <v>8.9999997615814191</v>
+        <v>-12.0000004768371</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="B172" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="C172">
-        <v>-0.87374997537438104</v>
+        <v>0.82644628099173501</v>
       </c>
       <c r="D172">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E172">
-        <v>6.0000002384185702</v>
+        <v>-6.9999998807907096</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="B173" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="C173">
-        <v>-1.1544097327491101</v>
+        <v>-2.3529411764705799</v>
       </c>
       <c r="D173">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E173">
-        <v>-8.0000001192092896</v>
+        <v>-12.0000004768371</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="B174" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="C174">
-        <v>-1.59923134692569</v>
+        <v>-1.60349854227405</v>
       </c>
       <c r="D174">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>8.9999997615814191</v>
+        <v>8.0000001192092896</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B175" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C175">
-        <v>-1.0310297304796201</v>
+        <v>0.70921985815602795</v>
       </c>
       <c r="D175">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E175">
-        <v>-11.000000238418499</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B176" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C176">
-        <v>-1.1413238178385401</v>
+        <v>0</v>
       </c>
       <c r="D176">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E176">
-        <v>-6.0000002384185702</v>
+        <v>-2.0000000298023202</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -5194,13 +5192,13 @@
         <v>356</v>
       </c>
       <c r="C177">
-        <v>-1.04037628372738</v>
+        <v>-1.5432098765432001</v>
       </c>
       <c r="D177">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>11.000000238418499</v>
+        <v>-1.0000000149011601</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -5211,61 +5209,61 @@
         <v>358</v>
       </c>
       <c r="C178">
-        <v>-0.390277507097676</v>
+        <v>0.94637223974763396</v>
       </c>
       <c r="D178">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E178">
-        <v>-5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B179" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C179">
-        <v>-1.31417893292115</v>
+        <v>1.4802631578947301</v>
       </c>
       <c r="D179">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E179">
-        <v>11.000000238418499</v>
+        <v>-4.0000000596046403</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B180" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C180">
-        <v>-0.34476135358680199</v>
+        <v>-1.77935943060498</v>
       </c>
       <c r="D180">
-        <v>28.599999999999898</v>
+        <v>0</v>
       </c>
       <c r="E180">
-        <v>8.9999997615814191</v>
+        <v>-6.9999998807907096</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="B181" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.56389043547135997</v>
+        <v>4.1825095057034201</v>
       </c>
       <c r="D181">
-        <v>28.599999999999898</v>
+        <v>100</v>
       </c>
       <c r="E181">
         <v>11.000000238418499</v>
@@ -5273,101 +5271,101 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="B182" t="s">
-        <v>46</v>
+        <v>366</v>
       </c>
       <c r="C182">
-        <v>-1.8069187599784999</v>
+        <v>-1.4192139737991201</v>
       </c>
       <c r="D182">
-        <v>14.299999999999899</v>
+        <v>0</v>
       </c>
       <c r="E182">
-        <v>8.0000001192092896</v>
+        <v>6.0000002384185702</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>91</v>
+        <v>367</v>
       </c>
       <c r="B183" t="s">
-        <v>92</v>
+        <v>368</v>
       </c>
       <c r="C183">
-        <v>-0.62798728894103095</v>
+        <v>-1.0204081632652999</v>
       </c>
       <c r="D183">
-        <v>14.299999999999899</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>12.0000004768371</v>
+        <v>8.0000001192092896</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>121</v>
+        <v>369</v>
       </c>
       <c r="B184" t="s">
-        <v>122</v>
+        <v>370</v>
       </c>
       <c r="C184">
-        <v>-2.1803927335967801</v>
+        <v>4.3256997455470696</v>
       </c>
       <c r="D184">
-        <v>14.299999999999899</v>
+        <v>100</v>
       </c>
       <c r="E184">
-        <v>8.9999997615814191</v>
+        <v>-6.0000002384185702</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>139</v>
+        <v>371</v>
       </c>
       <c r="B185" t="s">
-        <v>140</v>
+        <v>372</v>
       </c>
       <c r="C185">
-        <v>-0.67233295165998797</v>
+        <v>2.3310023310023298</v>
       </c>
       <c r="D185">
-        <v>14.299999999999899</v>
+        <v>100</v>
       </c>
       <c r="E185">
-        <v>8.0000001192092896</v>
+        <v>-3.0000001192092798</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>157</v>
+        <v>373</v>
       </c>
       <c r="B186" t="s">
-        <v>158</v>
+        <v>374</v>
       </c>
       <c r="C186">
-        <v>-1.0412618295098499</v>
+        <v>6.3013698630136901</v>
       </c>
       <c r="D186">
-        <v>14.299999999999899</v>
+        <v>100</v>
       </c>
       <c r="E186">
-        <v>12.0000004768371</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>169</v>
+        <v>375</v>
       </c>
       <c r="B187" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="C187">
-        <v>-1.2191860606148801</v>
+        <v>-1.6260162601626</v>
       </c>
       <c r="D187">
-        <v>14.299999999999899</v>
+        <v>0</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -5375,246 +5373,243 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>207</v>
+        <v>377</v>
       </c>
       <c r="B188" t="s">
-        <v>208</v>
+        <v>378</v>
       </c>
       <c r="C188">
-        <v>-1.0843234664061101</v>
+        <v>-0.62344139650872799</v>
       </c>
       <c r="D188">
-        <v>14.299999999999899</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>8.9999997615814191</v>
+        <v>13.9999997615814</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>237</v>
+        <v>379</v>
       </c>
       <c r="B189" t="s">
-        <v>238</v>
+        <v>380</v>
       </c>
       <c r="C189">
-        <v>-1.0145976856547201</v>
+        <v>-0.79635949943117101</v>
       </c>
       <c r="D189">
-        <v>14.299999999999899</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>-12.0000004768371</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>241</v>
+        <v>381</v>
       </c>
       <c r="B190" t="s">
-        <v>242</v>
+        <v>382</v>
       </c>
       <c r="C190">
-        <v>-0.97906599688197105</v>
+        <v>6.0204081632652997</v>
       </c>
       <c r="D190">
-        <v>14.299999999999899</v>
+        <v>100</v>
       </c>
       <c r="E190">
-        <v>4.0000000596046403</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="B191" t="s">
-        <v>246</v>
+        <v>384</v>
       </c>
       <c r="C191">
-        <v>-1.39680009437317</v>
+        <v>1.9189765458422099</v>
       </c>
       <c r="D191">
-        <v>14.299999999999899</v>
+        <v>100</v>
       </c>
       <c r="E191">
-        <v>-12.999999523162799</v>
+        <v>-2.0000000298023202</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>277</v>
+        <v>385</v>
       </c>
       <c r="B192" t="s">
-        <v>278</v>
+        <v>386</v>
       </c>
       <c r="C192">
-        <v>-3.2628781772641502</v>
+        <v>1.4760147601475999</v>
       </c>
       <c r="D192">
-        <v>14.299999999999899</v>
+        <v>100</v>
       </c>
       <c r="E192">
-        <v>8.9999997615814191</v>
+        <v>-8.0000001192092896</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>295</v>
+        <v>387</v>
       </c>
       <c r="B193" t="s">
-        <v>296</v>
+        <v>388</v>
       </c>
       <c r="C193">
-        <v>-0.47023749276650001</v>
+        <v>4.4280442804428004</v>
       </c>
       <c r="D193">
-        <v>14.299999999999899</v>
+        <v>100</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>-12.999999523162799</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="B194" t="s">
-        <v>304</v>
+        <v>390</v>
       </c>
       <c r="C194">
-        <v>-2.1457473914423901</v>
+        <v>-1.8518518518518501</v>
       </c>
       <c r="D194">
-        <v>14.299999999999899</v>
+        <v>0</v>
       </c>
       <c r="E194">
-        <v>8.9999997615814191</v>
+        <v>4.0000000596046403</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="B195" t="s">
-        <v>312</v>
+        <v>392</v>
       </c>
       <c r="C195">
-        <v>-1.3504325011303</v>
+        <v>1.12640801001251</v>
       </c>
       <c r="D195">
-        <v>14.299999999999899</v>
+        <v>100</v>
       </c>
       <c r="E195">
-        <v>10</v>
+        <v>8.9999997615814191</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>315</v>
+        <v>393</v>
       </c>
       <c r="B196" t="s">
-        <v>316</v>
+        <v>394</v>
       </c>
       <c r="C196">
-        <v>-1.7038246773636301</v>
+        <v>-0.71005917159763299</v>
       </c>
       <c r="D196">
-        <v>14.299999999999899</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>-8.9999997615814191</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="B197" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="C197">
-        <v>-0.531934827224949</v>
+        <v>-0.37174721189590998</v>
       </c>
       <c r="D197">
-        <v>14.299999999999899</v>
+        <v>0</v>
       </c>
       <c r="E197">
-        <v>-3.0000001192092798</v>
+        <v>12.999999523162799</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>397</v>
       </c>
       <c r="B198" t="s">
-        <v>24</v>
+        <v>398</v>
       </c>
       <c r="C198">
-        <v>-2.8397330063393702</v>
+        <v>-0.13404825737265399</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198">
-        <v>-10</v>
+        <v>-11.000000238418499</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>135</v>
+        <v>399</v>
       </c>
       <c r="B199" t="s">
-        <v>136</v>
+        <v>400</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>-2.2556390977443601</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>247</v>
+        <v>401</v>
       </c>
       <c r="B200" t="s">
-        <v>248</v>
+        <v>402</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>0.52910052910052896</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E200">
-        <v>-17.999999523162799</v>
+        <v>12.0000004768371</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="B201" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="C201">
-        <v>-1.4215575123230999</v>
+        <v>1.4198782961460401</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E201">
-        <v>-3.0000001192092798</v>
+        <v>-12.0000004768371</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E201">
-    <sortCondition descending="1" ref="D1:D201"/>
-  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
